--- a/results/2019年第2季.xlsx
+++ b/results/2019年第2季.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,6 +737,7566 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>270</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1,153,080</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1,069,098</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>535,255</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>455,848</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>572,825</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-1,379,382</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>-385</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>570,116</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1,894,585</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1,169,080</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>5,720,215</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>6,918,192</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2,559,348</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1,676,850</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1,479,775</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1,239,283</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-4,985,061</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-63,680</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>-2,888,405</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>15,168,577</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>11,970,706</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>42,269,165</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>16,656,149</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1,880,503</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>622,443</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-551,884</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4,373,615</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-1,411,567</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-4,709,951</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>3,131,939</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>64,278,358</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>-1.14</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>-0.53</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>37,816,496</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>109,030,091</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>-3.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>279.5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>9,783,128</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2,176,077</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1,065,878</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>781,066</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-2,135,269</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-212,522</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-126,078</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>-2,193,571</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>11,668,598</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2,992,078</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>37,821,795</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>630</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>522,942</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>337,470</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>210,758</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>180,971</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>243,130</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-27,126</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-953</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>221,277</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>1,169,282</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>85,781</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>3,330,940</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>16,715,476</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1,684,070</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>911,875</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>885,068</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1,666,343</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-85,887</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>360,038</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1,607,215</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>28,524,444</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>6,604,257</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>50,540,910</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>27.65</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2,186</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-1,965</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-53,119</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-68,334</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-33,240</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>14,853</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>-2,254</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-50,828</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>524,820</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>-3.16</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>-2.49</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>591,739</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2,631,939</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>-0.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>176</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4,451,180</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1,512,626</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>917,640</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>773,651</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1,253,195</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-1,463,937</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-356,891</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>-415,814</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>11,566,885</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>17,289,698</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>37,433,596</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2,218,263</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>453,502</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>248,388</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>226,742</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>133,990</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-186,440</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>28,939</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>-63,611</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>3,464,366</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>1,327,498</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>6,204,317</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>5,043,201</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1,632,534</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1,298,464</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1,003,566</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1,341,401</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>-1,398,960</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-50,504</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>-50,459</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>14,437,676</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>17,683,503</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>42,036,115</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>5,150,471</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>833,913</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>487,614</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>399,942</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>339,510</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-521,643</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>302,002</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>-209,016</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>9,848,065</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>8,000,151</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>17,319,864</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>8,297,226</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>917,208</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>404,347</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>642,328</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-351,051</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-845,431</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>747,936</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>-1,194,980</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>25,127,732</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>21,236,936</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>92,025,106</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>192,800</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>30,058</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-30,041</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-25,862</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-4,256</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>-3,571</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-926</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>-8,138</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>642,441</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>-3.87</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>-1.95</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>349,027</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1,292,101</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>-0.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>220</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>19,186,841</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7,078,308</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>648,709</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>550,542</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>4,218,871</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-1,399,024</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-1,491,412</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2,312,740</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>49,095,354</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>11,546,291</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>54,293,504</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>35</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>661,476</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>209,025</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83,341</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>122,869</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>466,450</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-230,563</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>-202,474</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>426,564</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2,638,080</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>835,734</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>4,125,824</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1,980,542</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>635,147</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>388,615</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>261,218</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>358,272</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-871,282</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>112,299</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>-276,400</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>7,795,863</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>10,937,885</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>18,510,969</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4,995,857</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1,284,780</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>428,375</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>484,476</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>149,827</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-1,836,973</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>684,111</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>66,664</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>14,209,632</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2,575,611</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>32,285,560</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1,585,486</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>374,551</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>40,538</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>36,725</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>112,690</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>-56,619</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>-51,116</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>58,400</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>3,135,767</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>461,542</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>4,169,812</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>32.05</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1,024,551</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>48,698</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>-32,175</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-39,111</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>-47,326</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-38,109</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>-46,000</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>-84,289</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>3,250,662</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>-1.42</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>-0.51</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>3,686,122</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>5,984,340</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>563,205</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>104,793</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>-21,938</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>-23,310</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>-51,269</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>-120,220</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>-23,458</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>-211,427</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>1,160,522</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>-0.91</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>-0.55</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>891,127</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>3,684,402</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>-0.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>257</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2,250,917</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>360,840</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>199,809</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>147,764</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>290,252</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>-211,380</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>192,314</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>154,418</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>5,173,878</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2,390,369</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>10,068,943</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>50,818</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>37,574</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>-14,577</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-14,073</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1,596</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>-1,236</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>-2,737</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>1,451</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>97,130</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>-3.17</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>-2.54</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>141,886</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>533,620</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>-0.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>450,824</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>135,293</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>77,354</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>64,833</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>58,090</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>-13,582</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>17,025</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>42,037</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>948,647</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>1,189,671</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>3,675,295</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>59</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1,299,558</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>483,782</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>48,518</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>44,761</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>171,242</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>-3,083</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>-232,716</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>128,140</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>3,732,548</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2,836,268</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>7,835,875</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>43.05</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>5,978,623</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>629,721</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>192,312</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>178,477</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1,801,312</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>-1,214,350</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>-372,438</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>1,612,419</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>8,210,562</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>4,664,630</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>12,814,367</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>5,573,645</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>473,052</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>-198,752</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>110,034</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>564,223</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>366,438</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1,152,582</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>538,132</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>16,384,815</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>5,645,203</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>24,242,877</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2,185</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>735</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>-67,728</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>13,603</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-51,769</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>11,825</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>1,157</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>-51,769</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>131,845</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>7,434</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>1,350,269</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2,875,176</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>-381,522</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>-503,450</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>-533,607</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>808,535</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>-376,895</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1,255,221</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>435,734</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>24,470,898</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>-6.95</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>-1.70</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>10,889,009</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>31,882,372</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>-1.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>115.5</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1,691,087</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>546,615</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>320,204</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>242,701</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>413,917</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>-20,269</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>-105,801</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>412,711</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>1,836,893</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>1,346,852</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>5,795,364</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1,215,991</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>122,287</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20,314</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>29,680</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>-25,921</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>-107,204</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>126,707</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>-193,785</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>2,548,862</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>973,458</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>4,084,525</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>21.65</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>8,747,571</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1,565,813</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>229,771</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>226,585</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>-298,643</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>-1,632,005</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1,886,964</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>-756,035</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>26,536,053</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>11,271,935</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>42,222,004</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>152,387</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>-10,070</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>-18,308</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>-9,190</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>-2,975</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2,550</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>-3,225</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>222,316</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>-0.38</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>-0.35</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>351,402</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>2,612,552</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>-0.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>212,259</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>82,340</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>30,603</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>25,049</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>17,672</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>-886</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>-4,440</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>16,670</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>304,742</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>189,939</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>762,263</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>24.15</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>94,880,949</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9,233,048</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>5,307,090</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4,234,789</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>10,533,040</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>-12,403,317</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>8,462,772</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>3,908,915</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>363,081,000</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>392,692,816</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>702,066,067</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1,688,890</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>-55,338</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>-110,568</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-150,197</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>-509,889</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>-1,121,873</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1,642,446</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>-1,614,307</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>16,313,561</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>-2.59</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>-0.55</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>17,238,396</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>22,146,183</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>-0.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>641,330</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>-37,310</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>-51,139</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>-52,919</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>-67,103</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>-17,883</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>221,484</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>-84,666</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>1,515,909</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>-1.43</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>-1.00</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>859,660</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>5,249,540</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>-0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>43</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>418,133</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>229,370</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>13,144</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8,879</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>58,642</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>-178,648</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>195,394</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>45,827</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>1,606,873</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>813,923</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>2,548,580</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>40.85</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>117,408</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>34,383</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>8,082</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>-11,010</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>-761,280</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>-12,484</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>647,131</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>-761,497</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>6,363,291</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>-0.42</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>22,545</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>8,874,446</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>227,530</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>29,862</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>-3,044</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>-9,688</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>-24,108</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>-13,460</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>19,205</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>-29,709</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>467,621</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>-1.26</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>-0.67</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>217,443</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>1,223,545</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>-0.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>19.45</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>406,263</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>80,194</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>34,969</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>27,590</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>75,041</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>-4,055</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>-36,004</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>70,985</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>340,021</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>254,146</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>1,746,543</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>39.95</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>295,664</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>86,320</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>17,509</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>17,549</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>35,915</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>-5,886</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>-7,375</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>29,458</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>1,012,732</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>765,612</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>1,861,613</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>206,587</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>16,765</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>-85,416</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>-131,234</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>52,306</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>-54,961</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>-10,546</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>23,478</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>1,580,514</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>-8.40</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>-4.17</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>468,262</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>3,086,665</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>-1.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>537,583</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>84,954</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>28,325</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>33,487</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>196,027</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>-91,449</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>-177,027</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>102,453</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>1,668,287</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>861,785</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>3,080,499</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>29.05</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>5,232,591</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1,606,166</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>179,294</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>48,549</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>394,762</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>-352,944</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>-679,481</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>86,701</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>13,625,356</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>10,069,399</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>20,624,021</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1,055,976</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>357,133</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>47,200</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>9,042</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>63,747</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>34,928</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>-201,998</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>52,318</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>6,572,055</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>3,069,745</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>12,910,689</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>114,480,012</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>40,487,786</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>9,465,559</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8,573,714</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>14,860,747</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>-1,919,762</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>-7,955,547</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>11,623,588</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>301,929,243</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>134,799,189</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>470,561,205</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1,960,128</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>161,155</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>-220,230</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>-157,765</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>505,784</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>28,125</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>-360,618</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>353,427</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>10,178,741</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>-1.17</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>-0.48</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>12,142,702</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>23,583,357</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>-0.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1,923,673</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>484,237</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>175,223</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>202,501</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>308,963</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>-972,695</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>564,693</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>243,389</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>3,648,717</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>8,509,785</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>23,503,449</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>63,175,534</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2,343,760</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>-3,341,942</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>-2,970,337</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>-4,796,236</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>-5,163,648</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>134,981</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>-13,273,186</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>148,911,539</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>-1.18</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>-0.67</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>203,360,208</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>397,666,844</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>-0.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>12,440,791</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4,347,847</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2,805,141</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2,747,927</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>1,591,027</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>-1,830,521</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>559,865</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>-235,612</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>35,777,672</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>90,742,617</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>185,349,128</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>600,969</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>110,137</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>23,737</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>-59,134</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>-90,853</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>-108,259</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>47,660</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>-93,541</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>7,801,348</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>-4.50</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>-0.16</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>2,398,660</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>9,085,064</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>-0.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1,159,784,106</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>61,606,302</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>15,548,730</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>18,029,398</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>723,888</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>-6,435,288</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>3,994,100</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>-15,183,333</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>1,764,240,367</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>281,459,480</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>3,114,598,624</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>28</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>3,581,807</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>302,099</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>52,115</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>56,222</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>-906,150</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>570,177</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>179,064</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>-940,164</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>15,791,091</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>850,402</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>27,230,045</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>17.55</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>8,575,448</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4,612,318</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>971,412</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>257,505</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>1,796,399</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>-340,730</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>108,317</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>1,181,485</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>85,796,264</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>33,960,863</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>123,280,458</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>69</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1,124,418</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>395,755</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>168,072</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3,969,794</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>-785,637</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>-368,896</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1,596,694</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>-794,400</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>33,661,604</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>1,301,730</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>105,078,052</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>155,308</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>21,228</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>6,261</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>42,892</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>3,652</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>-1,963</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>1,686</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>261,964</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>356,608</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>2,528,475</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>10,347,690</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2,063,440</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>727,036</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>606,018</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>1,091,707</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>-288,647</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>-885,480</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>641,274</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>34,164,741</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>18,140,159</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>56,469,833</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>40</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>28,455,523</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6,659,983</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2,497,523</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1,713,508</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>5,530,795</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>-2,257,303</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>-4,277,185</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>3,236,195</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>92,438,793</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>102,662,508</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>172,467,932</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>113</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>50,108,175</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>17,840,877</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>10,304,041</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>8,756,498</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>15,954,787</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>-15,662,620</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>-981,999</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>10,131,781</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>121,218,254</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>283,593,894</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>489,464,353</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>3,949,436</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>728,311</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>81,644</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>84,122</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>-2,730</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>144,302</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>-1,066</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>-12,085</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>4,330,671</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>1,758,158</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>14,342,762</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>66,339</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>21,999</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>-2,148</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>-32,331</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>-223,505</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>49,828</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>316,223</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>-223,504</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>12,735,368</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>-0.43</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>20,186,763</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>116</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>166,123,211</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>11,192,708</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>8,422,298</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>8,006,485</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>-6,520,650</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>-1,291,636</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>3,414,572</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>-8,593,575</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>120,329,446</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>104,227,492</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>439,203,464</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1,981,881</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>769,211</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>114,538</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>131,600</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>133,586</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>-244,135</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>133,753</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>-123,541</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>5,627,261</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>4,172,779</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>11,412,314</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1,893,864</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>963,462</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>126,380</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>51,989</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>120,529</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>-201,695</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>180,552</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>827,532</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>10,753,161</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>1,817,508</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>18,416,946</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>5,281,076</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1,327,970</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>498,030</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>492,052</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>1,096,929</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>-824,007</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>-236,982</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>453,058</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>15,529,714</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>20,612,697</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>37,482,328</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>273.5</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>7,039,697</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>936,530</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>134,695</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1,573,403</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>-1,584,307</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>-453,944</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>-13,246</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>-2,052,625</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>11,216,663</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>1,936,814</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>29,752,723</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>25.85</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1,216,851</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>300,763</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>145,333</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>80,455</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>302,550</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>-74,582</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>-255,369</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>233,418</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>7,353,908</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>10,403,253</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>13,232,052</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>47,111,741</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3,698,477</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1,109,068</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>-447,527</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>4,811,148</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>-3,958,792</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>576,726</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>2,240,144</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>229,480,654</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>-0.63</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>107,955,281</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>300,869,655</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>947,610</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>93,224</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>36,647</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>-130,698</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>273,511</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>-66,123</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>-175,047</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>213,578</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>20,484,253</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>-2.45</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>24,102,951</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>25,792,485</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>-0.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>66,726,582</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>12,584,417</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>4,285,591</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5,042,514</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>6,915,345</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>-7,386,753</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>6,018,973</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>-19,422</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>317,510,086</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>163,435,664</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>582,068,721</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>216,992</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>7,872</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>-10,781</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>-6,947</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>15,119</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>-126</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>-6,621</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>31,727</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1,532,233</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>-0.23</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>1,654,065</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>4,576,921</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>38.55</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>589,158</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>166,923</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>49,302</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>35,248</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>121,802</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-74,992</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>10,319</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>47,467</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>847,872</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>1,115,056</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>2,466,828</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>36,031,184</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>5,652,030</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1,760,975</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>942,384</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>12,268,072</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>-4,187,525</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>-6,467,418</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>8,364,256</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>167,840,654</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>158,439,907</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>369,935,294</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2,288,752</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>435,840</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>224,696</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>171,702</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>15,305</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-136,785</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>-39,572</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>-132,625</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>5,383,471</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>4,804,572</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>11,196,726</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>726,964</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>198,158</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>75,298</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>112,890</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>116,804</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>-53,211</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>25,788</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>92,926</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>2,429,345</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>1,051,323</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>5,074,157</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>6,090,962</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1,514,231</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>799,885</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>604,902</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>1,629,252</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>-2,959,554</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>2,135,961</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>-1,379,722</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>27,346,116</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>34,405,319</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>51,442,590</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>37.95</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>77,932,508</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3,226,509</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1,169,157</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1,625,445</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2,061,721</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>-1,029,599</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>1,245,499</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>2,007,279</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>88,776,559</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>6,617,870</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>139,902,385</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>4,667,803</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>713,284</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>58,878</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>16,506</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>444,794</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>-47,787</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>-359,389</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>428,505</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>9,495,944</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>3,672,965</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>14,035,368</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>14,041,492</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1,081,426</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>428,775</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>383,841</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>-45,609</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>-364,361</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>312,442</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>-121,074</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>21,665,518</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>3,445,053</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>34,441,616</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>9,260,179</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>332,372</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>100,419</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>53,996</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>-1,432,608</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>-2,227</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>1,392,374</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>-1,434,894</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>9,651,448</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>302,756</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>12,325,271</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>21.95</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>662,096</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>260,906</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>37,201</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>63,782</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>114,262</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>-73,299</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>-13,003</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>40,419</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>1,442,886</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>5,332,757</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>11,911,300</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>7</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>488,450</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>-141,214</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>-324,914</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>-374,943</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>-113,238</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>-30,113</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>163,014</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>-133,076</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>10,695,847</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>-19.81</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>-2.53</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>6,414,611</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>12,401,312</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>-1.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>161</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1,538,795</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>522,935</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>294,665</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>448,244</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>189,447</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>-255,944</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>-56,478</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>127,510</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>8,445,723</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>2,704,612</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>12,261,301</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>289,940</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>247,555</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>-56,914</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>-67,796</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>45,700</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>-21,336</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>-92,116</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>22,141</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>4,511,788</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>-3.90</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>-0.78</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>1,075,544</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>6,215,154</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>-0.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>233</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>18,056,388</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4,424,885</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2,091,374</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1,821,567</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2,467,372</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>-1,199,459</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>-769,505</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>1,288,774</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>22,027,485</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>15,605,824</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>38,758,404</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>223.5</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>16,019,744</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3,397,738</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1,305,292</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1,103,324</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2,468,325</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>-1,797,528</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>-847,087</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>1,516,520</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>32,972,631</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>9,726,112</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>55,540,232</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>12,541,510</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3,101,297</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1,012,502</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1,282,888</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>1,790,104</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>-18,128</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>-1,036,948</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>1,639,067</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>39,596,723</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>16,936,383</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>102,025,619</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>1,349,836</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>221,545</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>80,408</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>79,288</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>70,854</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>-869</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>-154,347</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>65,936</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>2,899,052</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>1,007,395</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>5,799,428</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>6,590,075</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1,230,561</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>492,261</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>409,639</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>146,838</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>-113,426</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>307,657</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>-13,581</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>17,162,352</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>6,585,168</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>41,079,393</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>19.45</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>252,395,071</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>8,666,679</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2,659,394</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2,032,386</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>-13,984,957</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>-1,069,717</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>14,852,863</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>-15,325,186</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>309,332,219</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>20,741,673</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>421,348,688</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>74,165,885</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>11,596,585</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>1,841,660</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1,868,194</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>14,203,282</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>-3,009,307</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>-1,459,926</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>11,446,821</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>164,453,432</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>20,184,109</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>331,240,582</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>19.05</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>41,234,187</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>5,792,260</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>1,702,253</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1,251,197</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>2,227,621</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>-1,126,236</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>-2,745,068</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>1,752,879</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>82,424,136</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>21,252,323</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>123,614,695</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>258</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>13,976,014</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>5,410,376</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2,332,835</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1,909,601</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>-139,921</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>-175,662</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>-169,133</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>-280,133</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>20,660,638</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>9,815,812</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>49,654,393</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>12,318,050</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2,200,671</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>267,404</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>465,149</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>2,168,535</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>-175,845</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>37,892</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>2,084,543</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>13,465,963</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>4,033,365</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>36,532,786</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>17.15</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>170,713</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>86,199</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>34,063</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>29,054</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>18,695</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>10,156</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>-4,400</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>18,695</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>467,462</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>6,740</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>1,175,613</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>3,178,610</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>330,708</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>120,341</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>111,338</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>-185,418</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>-9,026</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>298,313</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>-196,015</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>4,871,395</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>993,063</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>7,394,398</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>919,077</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>386,396</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>79,492</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>52,117</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>125,841</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>-2,945</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>-475</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>125,841</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>724,841</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>11,040</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>1,953,098</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
